--- a/biology/Zoologie/Ernst_von_Ballion/Ernst_von_Ballion.xlsx
+++ b/biology/Zoologie/Ernst_von_Ballion/Ernst_von_Ballion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Ballion (en russe : Эрнест Эрнестович Баллион), né le 18 novembre 1816 à Saint-Pétersbourg et mort le 9 septembre 1901 à Novorossiisk est un entomologiste sujet de l'Empire russe, spécialisé dans l'étude des coléoptères et des lépidoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst von Ballion descend d'une famille huguenote installée en Russie. Il poursuit ses études à l'école de l'Église réformée de la capitale qu'il termine en 1833 devenant ensuite précepteur, ce qui le mène jusqu'à Kazan. Il s'inscrit à l'université de Kazan à la fin des années 1840 et reçoit son diplôme en 1852 à l'âge de trente-cinq ans. Il devient ensuite enseignant en sciences naturelles au lycée classique No 2 de Kazan. En 1860, il est nommé professeur-assistant à l'institut d'agronomie de Gory-Gorki en Russie Blanche. Lorsque l'institut déménage en 1865 à Saint-Pétersbourg, il devient au bout de quelque temps dozent, puis professeur. Il était en rapport avec Édouard Ménétries.
 Sa collection de coléoptères est conservée aujourd'hui au musée zoologique de l'université d'Odessa et à l'institut forestier de Saint-Pétersbourg.
@@ -543,7 +557,9 @@
           <t>Quelques travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) Résumé de botanique, Kazan, 1857
 (ru) Essai d'étude de la dénomination en russe des mammifères de l'Empire russe, d'après leur nom vernaculaire ou scientifique, Kazan, 1858
